--- a/medicine/Mort/Cimetière_Condé_de_Saint-Maur-des-Fossés/Cimetière_Condé_de_Saint-Maur-des-Fossés.xlsx
+++ b/medicine/Mort/Cimetière_Condé_de_Saint-Maur-des-Fossés/Cimetière_Condé_de_Saint-Maur-des-Fossés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Cond%C3%A9_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_Condé_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Condé est l'un des quatre cimetières municipaux de la ville de Saint-Maur-des-Fossés (Val-de-Marne) en banlieue parisienne. Il se trouve au lieu-dit « Le Petit Parc », avenue de Condé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Cond%C3%A9_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_Condé_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a ouvert en 1894 sur un terrain plat acquis de la princesse Ruspoli[1]. Un pin artificiel cache en son milieu une antenne de téléphonie mobile. Quelques tombes montrent des médaillons ou des sculptures, comme celle allongée de la jeune Iwona Kuczma (1979-2012). La chapelle de la famille Richard avec ses colonnes de marbre est inscrite à l'inventaire[2], ainsi que la sépulture Lehot avec son vitrail[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a ouvert en 1894 sur un terrain plat acquis de la princesse Ruspoli. Un pin artificiel cache en son milieu une antenne de téléphonie mobile. Quelques tombes montrent des médaillons ou des sculptures, comme celle allongée de la jeune Iwona Kuczma (1979-2012). La chapelle de la famille Richard avec ses colonnes de marbre est inscrite à l'inventaire, ainsi que la sépulture Lehot avec son vitrail.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Cond%C3%A9_de_Saint-Maur-des-Foss%C3%A9s</t>
+          <t>Cimetière_Condé_de_Saint-Maur-des-Fossés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Beaumont (1928-2013), professeur de médecine, député, maire de Saint-Maur
 Maurice Bernardet (1921-2008), journaliste hippique
 Gil Delamare (né Gilbert-Yves Delamare de La Villenaise de Chenevarin, 1924-1966), cascadeur, et sa compagne Colette Duval (1930-1988), mannequin, parachutiste et actrice
 Liliane Gaudet (1930-2003), comédienne
-Paul Girol (1911-1988), peintre[4]
+Paul Girol (1911-1988), peintre
 Émile Magne (1877-1953), historien (buste)
 Bernard Mazo (1939-2012), poète
 Germaine Tillion (1907-2008), ethnologue et résistante
